--- a/ZonTruthTable.xlsx
+++ b/ZonTruthTable.xlsx
@@ -2778,49 +2778,49 @@
 ACCESS NOTE: Floor panels removed.</t>
   </si>
   <si>
-    <t>AIRPLANE NOTE: Mid-Exit Doors only on 900ER.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For 737-800BCF, external zonal GVI with the door closed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For aircraft equipped with optional auxiliary fuel tanks, removal of tanks not required.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: For aircraft equipped with optional fuel tanks, removal of tanks not required.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Only if HF system installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-950-01.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-952-01.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-960-02.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-962-02.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable only on airplanes with winglet installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable only to airplanes with winglet installed.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable only to airplanes with active left Mid-Exit Door.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable only to airplanes with active right Mid-Exit Door.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable only to airplanes with de-activated left Mid-Exit Door.</t>
-  </si>
-  <si>
-    <t>AIRPLANE NOTE: Applicable only to airplanes with de-activated right Mid-Exit Door.</t>
+    <t xml:space="preserve"> Mid-Exit Doors only on 900ER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For 737-800BCF, external zonal GVI with the door closed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For aircraft equipped with optional auxiliary fuel tanks, removal of tanks not required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For aircraft equipped with optional fuel tanks, removal of tanks not required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Only if HF system installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-950-01.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-952-01.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-960-02.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-962-02.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable only on airplanes with winglet installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable only to airplanes with winglet installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable only to airplanes with active left Mid-Exit Door.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable only to airplanes with active right Mid-Exit Door.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable only to airplanes with de-activated left Mid-Exit Door.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applicable only to airplanes with de-activated right Mid-Exit Door.</t>
   </si>
 </sst>
 </file>

--- a/ZonTruthTable.xlsx
+++ b/ZonTruthTable.xlsx
@@ -82,13 +82,13 @@
     <t>900ER</t>
   </si>
   <si>
+    <t>Applicability</t>
+  </si>
+  <si>
     <t>ENGINE NOTE</t>
   </si>
   <si>
     <t>NOTE TEXT</t>
-  </si>
-  <si>
-    <t>Applicability</t>
   </si>
   <si>
     <t>U</t>
@@ -2778,49 +2778,62 @@
 ACCESS NOTE: Floor panels removed.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mid-Exit Doors only on 900ER.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For 737-800BCF, external zonal GVI with the door closed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For aircraft equipped with optional auxiliary fuel tanks, removal of tanks not required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For aircraft equipped with optional fuel tanks, removal of tanks not required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Only if HF system installed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-950-01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-952-01.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-960-02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-962-02.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Applicable only on airplanes with winglet installed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Applicable only to airplanes with winglet installed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Applicable only to airplanes with active left Mid-Exit Door.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Applicable only to airplanes with active right Mid-Exit Door.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Applicable only to airplanes with de-activated left Mid-Exit Door.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Applicable only to airplanes with de-activated right Mid-Exit Door.</t>
+    <t xml:space="preserve">AIRPLANE NOTE: Mid-Exit Doors only on 900ER.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: For 737-800BCF, external zonal GVI with the door closed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: For aircraft equipped with optional auxiliary fuel tanks, removal of tanks not required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: For aircraft equipped with optional fuel tanks, removal of tanks not required.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Only if HF system installed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-950-01.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-952-01.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-960-02.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Task not applicable to airplanes with winglets. Airplanes with winglets use task 57-962-02.
+</t>
+  </si>
+  <si>
+    <t>AIRPLANE NOTE: Applicable only on airplanes with winglet installed.</t>
+  </si>
+  <si>
+    <t>AIRPLANE NOTE: Applicable only to airplanes with winglet installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Applicable only to airplanes with active left Mid-Exit Door.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Applicable only to airplanes with active right Mid-Exit Door.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Applicable only to airplanes with de-activated left Mid-Exit Door.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRPLANE NOTE: Applicable only to airplanes with de-activated right Mid-Exit Door.
+</t>
   </si>
 </sst>
 </file>
@@ -3329,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3403,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3477,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3551,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3625,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3702,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3779,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3856,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3933,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4010,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4087,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4164,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4241,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4318,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4395,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4472,13 +4485,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4549,13 +4562,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4626,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4703,13 +4716,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4777,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4854,13 +4867,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4931,13 +4944,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5008,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5085,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5162,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5239,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5316,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5393,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5470,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5547,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5624,13 +5637,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5701,13 +5714,13 @@
         <v>0</v>
       </c>
       <c r="X33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5778,13 +5791,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5855,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5932,13 +5945,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6009,13 +6022,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6086,13 +6099,13 @@
         <v>0</v>
       </c>
       <c r="X38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6163,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6240,13 +6253,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6314,13 +6327,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6391,13 +6404,13 @@
         <v>0</v>
       </c>
       <c r="X42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6468,13 +6481,13 @@
         <v>0</v>
       </c>
       <c r="X43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6545,13 +6558,13 @@
         <v>0</v>
       </c>
       <c r="X44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6622,13 +6635,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6699,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="X46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6776,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="X47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6850,13 +6863,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6927,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="X49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7004,13 +7017,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7078,13 +7091,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7152,13 +7165,13 @@
         <v>0</v>
       </c>
       <c r="X52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7229,13 +7242,13 @@
         <v>0</v>
       </c>
       <c r="X53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7306,13 +7319,13 @@
         <v>0</v>
       </c>
       <c r="X54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7383,13 +7396,13 @@
         <v>0</v>
       </c>
       <c r="X55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7457,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="X56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7531,13 +7544,13 @@
         <v>0</v>
       </c>
       <c r="X57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7605,13 +7618,13 @@
         <v>0</v>
       </c>
       <c r="X58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7682,13 +7695,13 @@
         <v>0</v>
       </c>
       <c r="X59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7759,13 +7772,13 @@
         <v>0</v>
       </c>
       <c r="X60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7836,13 +7849,13 @@
         <v>0</v>
       </c>
       <c r="X61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7913,13 +7926,13 @@
         <v>0</v>
       </c>
       <c r="X62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7990,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="X63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8067,13 +8080,13 @@
         <v>0</v>
       </c>
       <c r="X64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8144,13 +8157,13 @@
         <v>0</v>
       </c>
       <c r="X65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8221,13 +8234,13 @@
         <v>0</v>
       </c>
       <c r="X66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8298,13 +8311,13 @@
         <v>0</v>
       </c>
       <c r="X67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8375,13 +8388,13 @@
         <v>0</v>
       </c>
       <c r="X68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8452,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="X69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8529,13 +8542,13 @@
         <v>0</v>
       </c>
       <c r="X70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8606,13 +8619,13 @@
         <v>0</v>
       </c>
       <c r="X71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8683,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="X72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8757,13 +8770,13 @@
         <v>0</v>
       </c>
       <c r="X73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8831,13 +8844,13 @@
         <v>0</v>
       </c>
       <c r="X74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8905,13 +8918,13 @@
         <v>0</v>
       </c>
       <c r="X75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8982,13 +8995,13 @@
         <v>0</v>
       </c>
       <c r="X76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9059,13 +9072,13 @@
         <v>0</v>
       </c>
       <c r="X77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9133,13 +9146,13 @@
         <v>0</v>
       </c>
       <c r="X78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9210,13 +9223,13 @@
         <v>0</v>
       </c>
       <c r="X79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9284,13 +9297,13 @@
         <v>0</v>
       </c>
       <c r="X80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9358,13 +9371,13 @@
         <v>0</v>
       </c>
       <c r="X81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9432,13 +9445,13 @@
         <v>0</v>
       </c>
       <c r="X82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9506,13 +9519,13 @@
         <v>0</v>
       </c>
       <c r="X83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9580,13 +9593,13 @@
         <v>0</v>
       </c>
       <c r="X84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9657,13 +9670,13 @@
         <v>0</v>
       </c>
       <c r="X85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9734,13 +9747,13 @@
         <v>0</v>
       </c>
       <c r="X86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9808,13 +9821,13 @@
         <v>0</v>
       </c>
       <c r="X87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9882,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="X88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9956,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="X89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10030,13 +10043,13 @@
         <v>0</v>
       </c>
       <c r="X90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10104,13 +10117,13 @@
         <v>0</v>
       </c>
       <c r="X91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10181,13 +10194,13 @@
         <v>0</v>
       </c>
       <c r="X92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10258,13 +10271,13 @@
         <v>0</v>
       </c>
       <c r="X93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10332,13 +10345,13 @@
         <v>0</v>
       </c>
       <c r="X94" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10406,13 +10419,13 @@
         <v>0</v>
       </c>
       <c r="X95" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10480,13 +10493,13 @@
         <v>0</v>
       </c>
       <c r="X96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10557,13 +10570,13 @@
         <v>0</v>
       </c>
       <c r="X97" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10634,13 +10647,13 @@
         <v>0</v>
       </c>
       <c r="X98" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10711,13 +10724,13 @@
         <v>0</v>
       </c>
       <c r="X99" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10788,13 +10801,13 @@
         <v>0</v>
       </c>
       <c r="X100" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10862,13 +10875,13 @@
         <v>0</v>
       </c>
       <c r="X101" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10939,13 +10952,13 @@
         <v>0</v>
       </c>
       <c r="X102" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -11016,13 +11029,13 @@
         <v>0</v>
       </c>
       <c r="X103" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z103" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11093,13 +11106,13 @@
         <v>0</v>
       </c>
       <c r="X104" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11170,13 +11183,13 @@
         <v>0</v>
       </c>
       <c r="X105" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11247,13 +11260,13 @@
         <v>0</v>
       </c>
       <c r="X106" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -11324,13 +11337,13 @@
         <v>0</v>
       </c>
       <c r="X107" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11401,13 +11414,13 @@
         <v>0</v>
       </c>
       <c r="X108" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -11475,13 +11488,13 @@
         <v>0</v>
       </c>
       <c r="X109" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -11552,13 +11565,13 @@
         <v>0</v>
       </c>
       <c r="X110" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11626,13 +11639,13 @@
         <v>0</v>
       </c>
       <c r="X111" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11700,13 +11713,13 @@
         <v>0</v>
       </c>
       <c r="X112" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -11777,13 +11790,13 @@
         <v>0</v>
       </c>
       <c r="X113" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z113" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11854,13 +11867,13 @@
         <v>0</v>
       </c>
       <c r="X114" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -11931,13 +11944,13 @@
         <v>0</v>
       </c>
       <c r="X115" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -12008,13 +12021,13 @@
         <v>0</v>
       </c>
       <c r="X116" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -12085,13 +12098,13 @@
         <v>0</v>
       </c>
       <c r="X117" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -12162,13 +12175,13 @@
         <v>0</v>
       </c>
       <c r="X118" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -12239,13 +12252,13 @@
         <v>0</v>
       </c>
       <c r="X119" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -12316,13 +12329,13 @@
         <v>0</v>
       </c>
       <c r="X120" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -12393,13 +12406,13 @@
         <v>0</v>
       </c>
       <c r="X121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z121" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -12470,13 +12483,13 @@
         <v>0</v>
       </c>
       <c r="X122" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -12547,13 +12560,13 @@
         <v>0</v>
       </c>
       <c r="X123" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -12624,13 +12637,13 @@
         <v>0</v>
       </c>
       <c r="X124" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -12701,13 +12714,13 @@
         <v>0</v>
       </c>
       <c r="X125" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -12778,13 +12791,13 @@
         <v>0</v>
       </c>
       <c r="X126" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -12852,13 +12865,13 @@
         <v>0</v>
       </c>
       <c r="X127" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -12929,13 +12942,13 @@
         <v>0</v>
       </c>
       <c r="X128" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -13006,13 +13019,13 @@
         <v>0</v>
       </c>
       <c r="X129" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -13080,13 +13093,13 @@
         <v>0</v>
       </c>
       <c r="X130" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -13157,13 +13170,13 @@
         <v>0</v>
       </c>
       <c r="X131" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z131" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -13234,13 +13247,13 @@
         <v>0</v>
       </c>
       <c r="X132" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -13311,13 +13324,13 @@
         <v>0</v>
       </c>
       <c r="X133" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z133" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -13385,13 +13398,13 @@
         <v>0</v>
       </c>
       <c r="X134" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -13462,13 +13475,13 @@
         <v>0</v>
       </c>
       <c r="X135" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -13539,13 +13552,13 @@
         <v>0</v>
       </c>
       <c r="X136" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -13616,13 +13629,13 @@
         <v>0</v>
       </c>
       <c r="X137" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z137" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -13693,13 +13706,13 @@
         <v>0</v>
       </c>
       <c r="X138" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -13770,13 +13783,13 @@
         <v>0</v>
       </c>
       <c r="X139" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -13847,13 +13860,13 @@
         <v>0</v>
       </c>
       <c r="X140" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -13924,13 +13937,13 @@
         <v>0</v>
       </c>
       <c r="X141" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -13998,13 +14011,13 @@
         <v>0</v>
       </c>
       <c r="X142" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14075,13 +14088,13 @@
         <v>0</v>
       </c>
       <c r="X143" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14149,13 +14162,13 @@
         <v>0</v>
       </c>
       <c r="X144" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14223,13 +14236,13 @@
         <v>0</v>
       </c>
       <c r="X145" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -14300,13 +14313,13 @@
         <v>0</v>
       </c>
       <c r="X146" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -14377,13 +14390,13 @@
         <v>0</v>
       </c>
       <c r="X147" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z147" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -14454,13 +14467,13 @@
         <v>0</v>
       </c>
       <c r="X148" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -14531,13 +14544,13 @@
         <v>0</v>
       </c>
       <c r="X149" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -14608,13 +14621,13 @@
         <v>0</v>
       </c>
       <c r="X150" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -14685,13 +14698,13 @@
         <v>0</v>
       </c>
       <c r="X151" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z151" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -14762,13 +14775,13 @@
         <v>0</v>
       </c>
       <c r="X152" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z152" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -14839,13 +14852,13 @@
         <v>0</v>
       </c>
       <c r="X153" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -14916,13 +14929,13 @@
         <v>0</v>
       </c>
       <c r="X154" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -14993,13 +15006,13 @@
         <v>0</v>
       </c>
       <c r="X155" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -15070,13 +15083,13 @@
         <v>0</v>
       </c>
       <c r="X156" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -15147,13 +15160,13 @@
         <v>0</v>
       </c>
       <c r="X157" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z157" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -15224,13 +15237,13 @@
         <v>0</v>
       </c>
       <c r="X158" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z158" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -15301,13 +15314,13 @@
         <v>0</v>
       </c>
       <c r="X159" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z159" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -15375,10 +15388,10 @@
         <v>0</v>
       </c>
       <c r="X160" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z160" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y160" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:26">
@@ -15452,10 +15465,10 @@
         <v>0</v>
       </c>
       <c r="X161" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z161" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y161" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:26">
@@ -15529,10 +15542,10 @@
         <v>0</v>
       </c>
       <c r="X162" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z162" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y162" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:26">
@@ -15603,10 +15616,10 @@
         <v>0</v>
       </c>
       <c r="X163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z163" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y163" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:26">
@@ -15677,10 +15690,10 @@
         <v>0</v>
       </c>
       <c r="X164" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z164" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y164" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:26">
@@ -15754,10 +15767,10 @@
         <v>0</v>
       </c>
       <c r="X165" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z165" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y165" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:26">
@@ -15831,10 +15844,10 @@
         <v>0</v>
       </c>
       <c r="X166" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z166" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y166" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:26">
@@ -15908,10 +15921,10 @@
         <v>0</v>
       </c>
       <c r="X167" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z167" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y167" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:26">
@@ -15985,10 +15998,10 @@
         <v>0</v>
       </c>
       <c r="X168" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z168" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y168" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:26">
@@ -16059,10 +16072,10 @@
         <v>0</v>
       </c>
       <c r="X169" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z169" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y169" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:26">
@@ -16136,10 +16149,10 @@
         <v>0</v>
       </c>
       <c r="X170" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z170" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y170" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:26">
@@ -16213,10 +16226,10 @@
         <v>0</v>
       </c>
       <c r="X171" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z171" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y171" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:26">
@@ -16290,10 +16303,10 @@
         <v>0</v>
       </c>
       <c r="X172" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z172" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y172" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:26">
@@ -16367,10 +16380,10 @@
         <v>0</v>
       </c>
       <c r="X173" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z173" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y173" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:26">
@@ -16443,14 +16456,14 @@
       <c r="W174" t="b">
         <v>0</v>
       </c>
-      <c r="X174" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y174" t="s">
+      <c r="X174" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y174" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z174" t="s">
         <v>604</v>
-      </c>
-      <c r="Z174" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:26">
@@ -16523,14 +16536,14 @@
       <c r="W175" t="b">
         <v>0</v>
       </c>
-      <c r="X175" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y175" t="s">
+      <c r="X175" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y175" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="s">
         <v>605</v>
-      </c>
-      <c r="Z175" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:26">
@@ -16603,14 +16616,14 @@
       <c r="W176" t="b">
         <v>0</v>
       </c>
-      <c r="X176" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y176" t="s">
+      <c r="X176" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y176" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z176" t="s">
         <v>605</v>
-      </c>
-      <c r="Z176" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:26">
@@ -16683,14 +16696,14 @@
       <c r="W177" t="b">
         <v>0</v>
       </c>
-      <c r="X177" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y177" t="s">
+      <c r="X177" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y177" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z177" t="s">
         <v>606</v>
-      </c>
-      <c r="Z177" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:26">
@@ -16763,14 +16776,14 @@
       <c r="W178" t="b">
         <v>0</v>
       </c>
-      <c r="X178" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y178" t="s">
+      <c r="X178" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y178" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="s">
         <v>607</v>
-      </c>
-      <c r="Z178" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:26">
@@ -16843,14 +16856,14 @@
       <c r="W179" t="b">
         <v>0</v>
       </c>
-      <c r="X179" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y179" t="s">
+      <c r="X179" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y179" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="s">
         <v>608</v>
-      </c>
-      <c r="Z179" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:26">
@@ -16920,14 +16933,14 @@
       <c r="W180" t="b">
         <v>0</v>
       </c>
-      <c r="X180" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y180" t="s">
+      <c r="X180" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y180" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="s">
         <v>609</v>
-      </c>
-      <c r="Z180" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:26">
@@ -17000,14 +17013,14 @@
       <c r="W181" t="b">
         <v>0</v>
       </c>
-      <c r="X181" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y181" t="s">
+      <c r="X181" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y181" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z181" t="s">
         <v>610</v>
-      </c>
-      <c r="Z181" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:26">
@@ -17077,14 +17090,14 @@
       <c r="W182" t="b">
         <v>0</v>
       </c>
-      <c r="X182" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y182" t="s">
+      <c r="X182" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y182" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z182" t="s">
         <v>611</v>
-      </c>
-      <c r="Z182" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:26">
@@ -17157,14 +17170,14 @@
       <c r="W183" t="b">
         <v>0</v>
       </c>
-      <c r="X183" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y183" t="s">
+      <c r="X183" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y183" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z183" t="s">
         <v>612</v>
-      </c>
-      <c r="Z183" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:26">
@@ -17234,14 +17247,14 @@
       <c r="W184" t="b">
         <v>0</v>
       </c>
-      <c r="X184" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y184" t="s">
+      <c r="X184" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y184" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z184" t="s">
         <v>613</v>
-      </c>
-      <c r="Z184" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:26">
@@ -17314,14 +17327,14 @@
       <c r="W185" t="b">
         <v>0</v>
       </c>
-      <c r="X185" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y185" t="s">
+      <c r="X185" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y185" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z185" t="s">
         <v>614</v>
-      </c>
-      <c r="Z185" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:26">
@@ -17391,14 +17404,14 @@
       <c r="W186" t="b">
         <v>0</v>
       </c>
-      <c r="X186" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y186" t="s">
+      <c r="X186" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y186" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="s">
         <v>614</v>
-      </c>
-      <c r="Z186" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:26">
@@ -17471,14 +17484,14 @@
       <c r="W187" t="b">
         <v>0</v>
       </c>
-      <c r="X187" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y187" t="s">
+      <c r="X187" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y187" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="s">
         <v>614</v>
-      </c>
-      <c r="Z187" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:26">
@@ -17552,10 +17565,10 @@
         <v>0</v>
       </c>
       <c r="X188" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z188" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:26">
@@ -17629,10 +17642,10 @@
         <v>0</v>
       </c>
       <c r="X189" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z189" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y189" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:26">
@@ -17706,10 +17719,10 @@
         <v>0</v>
       </c>
       <c r="X190" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z190" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y190" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:26">
@@ -17783,10 +17796,10 @@
         <v>0</v>
       </c>
       <c r="X191" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z191" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y191" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:26">
@@ -17862,7 +17875,7 @@
       <c r="X192" t="b">
         <v>0</v>
       </c>
-      <c r="Z192" t="b">
+      <c r="Y192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -17939,7 +17952,7 @@
       <c r="X193" t="b">
         <v>0</v>
       </c>
-      <c r="Z193" t="b">
+      <c r="Y193" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18016,7 +18029,7 @@
       <c r="X194" t="b">
         <v>0</v>
       </c>
-      <c r="Z194" t="b">
+      <c r="Y194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18093,11 +18106,11 @@
       <c r="X195" t="b">
         <v>0</v>
       </c>
-      <c r="Y195" t="s">
+      <c r="Y195" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z195" t="s">
         <v>615</v>
-      </c>
-      <c r="Z195" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:26">
@@ -18173,11 +18186,11 @@
       <c r="X196" t="b">
         <v>0</v>
       </c>
-      <c r="Y196" t="s">
+      <c r="Y196" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z196" t="s">
         <v>616</v>
-      </c>
-      <c r="Z196" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:26">
@@ -18253,11 +18266,11 @@
       <c r="X197" t="b">
         <v>0</v>
       </c>
-      <c r="Y197" t="s">
+      <c r="Y197" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z197" t="s">
         <v>617</v>
-      </c>
-      <c r="Z197" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:26">
@@ -18333,11 +18346,11 @@
       <c r="X198" t="b">
         <v>0</v>
       </c>
-      <c r="Y198" t="s">
+      <c r="Y198" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="s">
         <v>618</v>
-      </c>
-      <c r="Z198" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:26">
@@ -18413,7 +18426,7 @@
       <c r="X199" t="b">
         <v>0</v>
       </c>
-      <c r="Z199" t="b">
+      <c r="Y199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18490,7 +18503,7 @@
       <c r="X200" t="b">
         <v>0</v>
       </c>
-      <c r="Z200" t="b">
+      <c r="Y200" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18562,10 +18575,10 @@
         <v>1</v>
       </c>
       <c r="X201" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z201" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y201" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:26">
@@ -18639,10 +18652,10 @@
         <v>1</v>
       </c>
       <c r="X202" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z202" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y202" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:26">
@@ -18716,10 +18729,10 @@
         <v>1</v>
       </c>
       <c r="X203" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z203" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y203" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:26">
@@ -18790,10 +18803,10 @@
         <v>1</v>
       </c>
       <c r="X204" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z204" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y204" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:26">
@@ -18867,10 +18880,10 @@
         <v>1</v>
       </c>
       <c r="X205" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z205" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y205" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:26">
@@ -18944,10 +18957,10 @@
         <v>1</v>
       </c>
       <c r="X206" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z206" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y206" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:26">
@@ -19021,10 +19034,10 @@
         <v>1</v>
       </c>
       <c r="X207" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z207" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y207" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:26">
@@ -19098,13 +19111,13 @@
         <v>1</v>
       </c>
       <c r="X208" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z208" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:26">
+        <v>1</v>
+      </c>
+      <c r="Y208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -19174,11 +19187,11 @@
       <c r="X209" t="b">
         <v>0</v>
       </c>
-      <c r="Z209" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:26">
+      <c r="Y209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19251,7 +19264,7 @@
       <c r="X210" t="b">
         <v>0</v>
       </c>
-      <c r="Z210" t="b">
+      <c r="Y210" t="b">
         <v>0</v>
       </c>
     </row>
